--- a/outputs-GTDB-r202/g__RUG472.xlsx
+++ b/outputs-GTDB-r202/g__RUG472.xlsx
@@ -752,7 +752,7 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>s__RUG472 sp902798825</t>
+          <t>s__RUG472 sp902798825(reject)</t>
         </is>
       </c>
     </row>
